--- a/public/files/jobseeker-bulk-upload-sample.xlsx
+++ b/public/files/jobseeker-bulk-upload-sample.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">Do not change the column</t>
+    <t xml:space="preserve">Do not change the row</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,8 +424,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
